--- a/biology/Biologie cellulaire et moléculaire/Similarity_Matrix_of_Proteins/Similarity_Matrix_of_Proteins.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Similarity_Matrix_of_Proteins/Similarity_Matrix_of_Proteins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Similarity Matrix of Proteins, ou SIMAP, est une base de données de similitude entre protéines et des domaines protéiniques. Celle-ci rassemble toutes les séquences de protéines actuellement publiées et est continuellement mise à jour. Les similitudes entre protéines sont calculées à l'aide de l'algorithme FASTA qui fournit une vitesse optimale et une sensibilité nécessaire. Les domaines de protéines sont calculés en utilisant la base de données et les méthodes d'InterPro.
 SIMAP est un projet commun du centre national de recherches GSF pour l'environnement et la santé, de l'université technique de Munich, et du centre de la vie et des sciences de l'alimentation Weihenstephan.
